--- a/src/main/java/config/permission_set.xlsx
+++ b/src/main/java/config/permission_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aviraj/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aviraj/git/QA-Automation/src/main/java/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CCC677-57E5-FA47-9C90-9765DE972434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092F9DC4-D763-F94E-8631-2BD9368B8478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{05C0DBE7-18E1-2745-AE4E-2943C85B9AAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t>Permission_Name</t>
   </si>
@@ -225,13 +225,40 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Call Variables Management</t>
+  </si>
+  <si>
+    <t>Download Call Recording</t>
+  </si>
+  <si>
+    <t>Play Call Recording</t>
+  </si>
+  <si>
+    <t>Company Settings</t>
+  </si>
+  <si>
+    <t>Fos Settings Module</t>
+  </si>
+  <si>
+    <t>Field Agent Location Upload</t>
+  </si>
+  <si>
+    <t>Loan Update</t>
+  </si>
+  <si>
+    <t>Loan Upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +270,12 @@
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,9 +298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E115835-128D-1B46-8E9C-A2B8268310ED}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,6 +664,12 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -713,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -749,7 +789,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -757,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -779,7 +819,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -790,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -815,7 +855,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -845,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -856,7 +896,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
@@ -870,7 +910,7 @@
         <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -881,7 +921,7 @@
         <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -903,7 +943,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,7 +976,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -958,7 +998,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -980,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -1002,7 +1042,7 @@
         <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1021,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -1043,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>62</v>
@@ -1054,7 +1094,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
@@ -1068,7 +1108,7 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1079,7 +1119,7 @@
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,7 +1127,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -1109,7 +1149,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
@@ -1218,15 +1258,143 @@
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
